--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44302</v>
+        <v>44327</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44327</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44330</v>
+        <v>44316</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44302</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T9" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44306</v>
+        <v>44302</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44330</v>
+        <v>44322</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44327</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44322</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44330</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44306</v>
+        <v>44316</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44323</v>
+        <v>44306</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44302</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44327</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44323</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44306</v>
+        <v>44302</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44327</v>
+        <v>44302</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44316</v>
+        <v>44302</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44330</v>
+        <v>44322</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44330</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44302</v>
+        <v>44327</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44327</v>
+        <v>44323</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44322</v>
+        <v>44302</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44323</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44327</v>
+        <v>44302</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44323</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44302</v>
+        <v>44322</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44306</v>
+        <v>44322</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44327</v>
+        <v>44302</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44306</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44330</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44306</v>
+        <v>44302</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44323</v>
+        <v>44306</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44302</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44322</v>
+        <v>44316</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44302</v>
+        <v>44313</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44306</v>
+        <v>44322</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44313</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44306</v>
+        <v>44302</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44302</v>
+        <v>44322</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44323</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T9" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44322</v>
+        <v>44302</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44302</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44302</v>
+        <v>44322</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44316</v>
+        <v>44327</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44330</v>
+        <v>44316</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44327</v>
+        <v>44323</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44327</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44302</v>
+        <v>44322</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44322</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44327</v>
+        <v>44302</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44327</v>
+        <v>44323</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44322</v>
+        <v>44327</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44302</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44330</v>
+        <v>44316</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44302</v>
+        <v>44327</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44306</v>
+        <v>44322</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44316</v>
+        <v>44302</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44306</v>
+        <v>44316</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44322</v>
+        <v>44327</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44330</v>
+        <v>44302</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44302</v>
+        <v>44322</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44327</v>
+        <v>44302</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44323</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44323</v>
+        <v>44302</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44302</v>
+        <v>44327</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44306</v>
+        <v>44316</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44313</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44302</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44323</v>
+        <v>44316</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44302</v>
+        <v>44322</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44327</v>
+        <v>44323</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44316</v>
+        <v>44327</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44313</v>
+        <v>44302</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44306</v>
+        <v>44322</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44330</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T9" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44330</v>
+        <v>44316</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44302</v>
+        <v>44327</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44322</v>
+        <v>44302</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44306</v>
+        <v>44316</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44323</v>
+        <v>44306</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44322</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44316</v>
+        <v>44302</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44306</v>
+        <v>44330</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44302</v>
+        <v>44323</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44327</v>
+        <v>44302</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44322</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44306</v>
+        <v>44322</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44302</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T8" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44330</v>
+        <v>44302</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44316</v>
+        <v>44327</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44306</v>
+        <v>44322</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44306</v>
+        <v>44302</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44323</v>
+        <v>44302</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T8" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44322</v>
+        <v>44327</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44306</v>
+        <v>44302</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44327</v>
+        <v>44323</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44309</v>
+        <v>44327</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44306</v>
+        <v>44322</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44327</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44330</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44322</v>
+        <v>44302</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44322</v>
+        <v>44327</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44327</v>
+        <v>44302</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44323</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44302</v>
+        <v>44323</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T8" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44306</v>
+        <v>44316</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44302</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44306</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44316</v>
+        <v>44302</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44327</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44302</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44323</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44330</v>
+        <v>44316</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44302</v>
+        <v>44327</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44302</v>
+        <v>44322</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44330</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44322</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44306</v>
+        <v>44302</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44323</v>
+        <v>44302</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44302</v>
+        <v>44316</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44302</v>
+        <v>44323</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44322</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44313</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44316</v>
+        <v>44302</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44302</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44323</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44322</v>
+        <v>44302</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44322</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44327</v>
+        <v>44302</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44302</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44302</v>
+        <v>44327</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44306</v>
+        <v>44302</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44327</v>
+        <v>44323</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44316</v>
+        <v>44327</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44327</v>
+        <v>44323</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44322</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T8" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44306</v>
+        <v>44322</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44327</v>
+        <v>44323</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44323</v>
+        <v>44302</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44327</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T8" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44306</v>
+        <v>44322</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44313</v>
+        <v>44309</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44330</v>
+        <v>44322</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44302</v>
+        <v>44323</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44306</v>
+        <v>44302</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44327</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44306</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44302</v>
+        <v>44316</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44327</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44322</v>
+        <v>44302</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44309</v>
+        <v>44327</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44306</v>
+        <v>44330</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44322</v>
+        <v>44302</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44323</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T8" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44327</v>
+        <v>44323</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44322</v>
+        <v>44327</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44330</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44323</v>
+        <v>44316</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44306</v>
+        <v>44316</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44327</v>
+        <v>44323</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44313</v>
+        <v>44302</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T9" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44313</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44306</v>
+        <v>44302</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44322</v>
+        <v>44302</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44327</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44302</v>
+        <v>44313</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44330</v>
+        <v>44322</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44302</v>
+        <v>44322</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44323</v>
+        <v>44306</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44327</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44313</v>
+        <v>44302</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44330</v>
+        <v>44302</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>11000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44306</v>
+        <v>44322</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44323</v>
+        <v>44316</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44327</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>11000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>11000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>11000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>11000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos granel</t>
+          <t>$/caja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>821</v>
+        <v>11500</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44316</v>
+        <v>44327</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>11000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44306</v>
+        <v>44316</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44323</v>
+        <v>44302</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44313</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>11000</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos empedrada</t>
+          <t>$/caja 14 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>11500</v>
+        <v>821</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44330</v>
+        <v>44322</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
